--- a/web/product.xlsx
+++ b/web/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\batch2-august2022\training\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988BE75B-560C-4711-B8C7-0002B84E1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8083C2-910F-4272-A591-642837377F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Product - ABC</t>
   </si>
@@ -43,14 +43,31 @@
   </si>
   <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>eShopping</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
+    <t>product 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -184,6 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,17 +484,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -516,11 +539,15 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.35">
@@ -563,7 +590,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -575,48 +602,57 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E13" s="4"/>
@@ -642,5 +678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>